--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.606130666666667</v>
+        <v>0.04408699999999999</v>
       </c>
       <c r="H2">
-        <v>7.818392</v>
+        <v>0.132261</v>
       </c>
       <c r="I2">
-        <v>0.2943337015143609</v>
+        <v>0.007006504090795892</v>
       </c>
       <c r="J2">
-        <v>0.2943337015143609</v>
+        <v>0.007006504090795892</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>0.9548729479813977</v>
       </c>
       <c r="Q2">
-        <v>2.843524846513778</v>
+        <v>0.04810291422133332</v>
       </c>
       <c r="R2">
-        <v>25.591723618624</v>
+        <v>0.432926227992</v>
       </c>
       <c r="S2">
-        <v>0.2810512892552945</v>
+        <v>0.006690321216221995</v>
       </c>
       <c r="T2">
-        <v>0.2810512892552946</v>
+        <v>0.006690321216221995</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.606130666666667</v>
+        <v>0.04408699999999999</v>
       </c>
       <c r="H3">
-        <v>7.818392</v>
+        <v>0.132261</v>
       </c>
       <c r="I3">
-        <v>0.2943337015143609</v>
+        <v>0.007006504090795892</v>
       </c>
       <c r="J3">
-        <v>0.2943337015143609</v>
+        <v>0.007006504090795892</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>0.04512705201860228</v>
       </c>
       <c r="Q3">
-        <v>0.1343842591164444</v>
+        <v>0.002273331459333333</v>
       </c>
       <c r="R3">
-        <v>1.209458332048</v>
+        <v>0.020459983134</v>
       </c>
       <c r="S3">
-        <v>0.01328241225906632</v>
+        <v>0.0003161828745738959</v>
       </c>
       <c r="T3">
-        <v>0.01328241225906632</v>
+        <v>0.0003161828745738959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>18.059902</v>
       </c>
       <c r="I4">
-        <v>0.6798888831164529</v>
+        <v>0.9567202519440571</v>
       </c>
       <c r="J4">
-        <v>0.6798888831164529</v>
+        <v>0.9567202519440571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>59.114971539344</v>
       </c>
       <c r="S4">
-        <v>0.6492075021211873</v>
+        <v>0.9135462873673272</v>
       </c>
       <c r="T4">
-        <v>0.6492075021211873</v>
+        <v>0.9135462873673272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>18.059902</v>
       </c>
       <c r="I5">
-        <v>0.6798888831164529</v>
+        <v>0.9567202519440571</v>
       </c>
       <c r="J5">
-        <v>0.6798888831164529</v>
+        <v>0.9567202519440571</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,10 +756,10 @@
         <v>2.793758479988</v>
       </c>
       <c r="S5">
-        <v>0.03068138099526558</v>
+        <v>0.04317396457672975</v>
       </c>
       <c r="T5">
-        <v>0.03068138099526558</v>
+        <v>0.04317396457672974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.6847259999999999</v>
       </c>
       <c r="I6">
-        <v>0.02577741536918618</v>
+        <v>0.03627324396514701</v>
       </c>
       <c r="J6">
-        <v>0.02577741536918618</v>
+        <v>0.03627324396514701</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -818,10 +818,10 @@
         <v>2.241294443472</v>
       </c>
       <c r="S6">
-        <v>0.0246141566049158</v>
+        <v>0.03463633939784837</v>
       </c>
       <c r="T6">
-        <v>0.0246141566049158</v>
+        <v>0.03463633939784837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.6847259999999999</v>
       </c>
       <c r="I7">
-        <v>0.02577741536918618</v>
+        <v>0.03627324396514701</v>
       </c>
       <c r="J7">
-        <v>0.02577741536918618</v>
+        <v>0.03627324396514701</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -880,10 +880,10 @@
         <v>0.105923003844</v>
       </c>
       <c r="S7">
-        <v>0.001163258764270383</v>
+        <v>0.001636904567298641</v>
       </c>
       <c r="T7">
-        <v>0.001163258764270383</v>
+        <v>0.00163690456729864</v>
       </c>
     </row>
   </sheetData>
